--- a/teste_db.xlsx
+++ b/teste_db.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edson\OneDrive\Documentos\Programming Course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DPLAW-BACKUP\Desktop\dprobot\dprobot\dplaw_Robot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="Edson___teste_tom" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Nome/Razão Social</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Belém</t>
   </si>
   <si>
-    <t>6ª-º Juizado Especial Cível</t>
-  </si>
-  <si>
     <t>advbradesco</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Porto Velho</t>
   </si>
   <si>
-    <t>2ª-º Vara Cível</t>
-  </si>
-  <si>
     <t>cbradesco</t>
   </si>
   <si>
@@ -123,22 +117,13 @@
     <t>Ariquemes</t>
   </si>
   <si>
-    <t>Juizado Especial Cível</t>
-  </si>
-  <si>
-    <t>Campos em azul são fixos</t>
-  </si>
-  <si>
-    <t>Campos em amarelo vem no email do cliente</t>
-  </si>
-  <si>
-    <t>Campos em verde devem ser retirados no site do TJ</t>
-  </si>
-  <si>
-    <t>Campos em vermellho são dados automáticos</t>
-  </si>
-  <si>
-    <t>Coluna M é a coluna que o cliente mais erra, seria importante esses dados serem retirados do site doTJ e não do cliente.</t>
+    <t>;Juizado Especial Cível</t>
+  </si>
+  <si>
+    <t>6 ª-º;Juizado Especial Cível</t>
+  </si>
+  <si>
+    <t>2 ª-º;Vara Cível</t>
   </si>
 </sst>
 </file>
@@ -146,9 +131,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,13 +286,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -725,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -734,17 +712,13 @@
     <xf numFmtId="0" fontId="19" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="19" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="19" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,8 +736,7 @@
     <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1087,264 +1060,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9" t="str">
+      <c r="C2" s="6" t="str">
         <f>"0832443-47.2018.8.14.0301"</f>
         <v>0832443-47.2018.8.14.0301</v>
       </c>
-      <c r="D2" s="9" t="str">
+      <c r="D2" s="6" t="str">
         <f>"0832443-47.2018.8.14.0301"</f>
         <v>0832443-47.2018.8.14.0301</v>
       </c>
-      <c r="E2" s="9" t="str">
+      <c r="E2" s="6" t="str">
         <f>"1800290606"</f>
         <v>1800290606</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="8">
+        <v>10314.299999999999</v>
+      </c>
+      <c r="P2" s="9">
+        <v>43238</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="12">
-        <v>10314.299999999999</v>
-      </c>
-      <c r="P2" s="13">
-        <v>43238</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="str">
+      <c r="C3" s="6" t="str">
         <f>"7017341-35.2017.8.22.0001"</f>
         <v>7017341-35.2017.8.22.0001</v>
       </c>
-      <c r="D3" s="9" t="str">
+      <c r="D3" s="6" t="str">
         <f>"7017341-35.2017.8.22.0001"</f>
         <v>7017341-35.2017.8.22.0001</v>
       </c>
-      <c r="E3" s="9" t="str">
+      <c r="E3" s="6" t="str">
         <f>"1700755381"</f>
         <v>1700755381</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>27</v>
+      <c r="J3" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="O3" s="8">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="9">
+        <v>43083</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="12">
-        <v>10000</v>
-      </c>
-      <c r="P3" s="13">
-        <v>43083</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="str">
+      <c r="C4" s="6" t="str">
         <f>"7001091-21.2017.8.22.0002"</f>
         <v>7001091-21.2017.8.22.0002</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="6" t="str">
         <f>"7001091-21.2017.8.22.0002"</f>
         <v>7001091-21.2017.8.22.0002</v>
       </c>
-      <c r="E4" s="9" t="str">
+      <c r="E4" s="6" t="str">
         <f>"1700117977"</f>
         <v>1700117977</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>32</v>
+      <c r="J4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>34</v>
+      <c r="L4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="12">
+        <v>28</v>
+      </c>
+      <c r="O4" s="8">
         <v>38621.82</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="9">
         <v>42801</v>
       </c>
-      <c r="Q4" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>39</v>
+      <c r="Q4" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/teste_db.xlsx
+++ b/teste_db.xlsx
@@ -84,9 +84,6 @@
     <t>Grupo 4</t>
   </si>
   <si>
-    <t>ABIGAIL MAIA DA SILVA</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>PA</t>
   </si>
   <si>
-    <t>ABRAAO VIEIRA DA COSTA</t>
-  </si>
-  <si>
     <t>Porto Velho</t>
   </si>
   <si>
@@ -111,9 +105,6 @@
     <t>RO</t>
   </si>
   <si>
-    <t>ACACIO FERNANDES DE SOUZA</t>
-  </si>
-  <si>
     <t>Ariquemes</t>
   </si>
   <si>
@@ -124,6 +115,15 @@
   </si>
   <si>
     <t>2 ª-º;Vara Cível</t>
+  </si>
+  <si>
+    <t>ABIGAIL MAIA DA SILVA 20</t>
+  </si>
+  <si>
+    <t>ABRAAO VIEIRA DA COSTA 20</t>
+  </si>
+  <si>
+    <t>ACACIO FERNANDES DE SOUZA 20</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1077,7 @@
     <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -1169,19 +1169,19 @@
         <v>20</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="O2" s="8">
         <v>10314.299999999999</v>
@@ -1190,7 +1190,7 @@
         <v>43238</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1221,19 +1221,19 @@
         <v>20</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="O3" s="8">
         <v>10000</v>
@@ -1242,7 +1242,7 @@
         <v>43083</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1273,19 +1273,19 @@
         <v>20</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O4" s="8">
         <v>38621.82</v>
@@ -1294,7 +1294,7 @@
         <v>42801</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
